--- a/PayRoll/ImportFormatFiles/IncrementImportFormat.xlsx
+++ b/PayRoll/ImportFormatFiles/IncrementImportFormat.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Vaibhav\winProject\VanitaPayRoll\PayRoll\ImportFormatFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AMC Projects\VanitaPayroll\PayRoll\ImportFormatFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BACCA87-116D-4CCA-A646-5D39D25F5920}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20580" windowHeight="5130"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14476" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>EmpCode</t>
   </si>
@@ -69,12 +70,15 @@
   </si>
   <si>
     <t>Add3</t>
+  </si>
+  <si>
+    <t>Name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,7 +149,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -423,71 +427,74 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.85546875" customWidth="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1"/>
-    <col min="12" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.42578125" customWidth="1"/>
+    <col min="1" max="2" width="12.86328125" customWidth="1"/>
+    <col min="5" max="5" width="9.86328125" customWidth="1"/>
+    <col min="7" max="7" width="18.3984375" customWidth="1"/>
+    <col min="8" max="8" width="21.3984375" customWidth="1"/>
+    <col min="9" max="9" width="30.73046875" customWidth="1"/>
+    <col min="10" max="10" width="18.3984375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="23.86328125" customWidth="1"/>
+    <col min="12" max="12" width="18.86328125" customWidth="1"/>
+    <col min="13" max="15" width="5.59765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="1" customFormat="1" ht="13.15" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
